--- a/biology/Histoire de la zoologie et de la botanique/Robert_Cyril_Stebbins/Robert_Cyril_Stebbins.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Cyril_Stebbins/Robert_Cyril_Stebbins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Cyril Stebbins est un herpétologiste américain, né le 31 mars 1915 à Chico (Californie) et mort le 23 septembre 2013 à Eugene (Oregon)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Cyril Stebbins est un herpétologiste américain, né le 31 mars 1915 à Chico (Californie) et mort le 23 septembre 2013 à Eugene (Oregon).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille s’installe dans la vallée de San Fernando près de San Francisco. Il étudie à l’université de Californie à Los Angeles où il obtient son Bachelor of Arts (1940), son Master of Arts (1942) et son doctorat (1943). Il rejoint l’université de Californie (Berkeley) en 1945 où il va faire toute sa carrière. Il prend sa retraite en 1978 comme professeur émérite. Il participe comme conservateur en herpétologie au musée de zoologie des vertébrés de l’université.
 Stebbins étudie les salamandres du genre Ensatina et s’intéresse aussi aux adaptations morphologiques des lézards du genre Uma, la coloration adaptative, les comportements contre les prédateurs, etc. Il supervise les travaux de nombreux étudiants comme Charles Herbert Lowe, Jr. (1920-2002) ou William John Riemer (1924-).
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ « http://www.oac.cdlib.org/findaid/ark:/13030/c8rj4mps/ »
